--- a/backend/Relatorios/Tabelas/tLOCALIZAÇÃO.xlsx
+++ b/backend/Relatorios/Tabelas/tLOCALIZAÇÃO.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c850682481644d/Área de Trabalho/Dados/Manutenção/Dashboard Manutenção/PCM Hub/backend/Relatorios/Tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c850682481644d/Área de Trabalho/Dados/Manutenção/Dashboard Manutenção/PCM-Hub/backend/Relatorios/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_5196147A52E4D635BCF8C365AC0D0870BBB573BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34852D51-6CF9-419D-9F7C-BD5E444F708A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
